--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="124">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,22 +43,22 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>useless</t>
   </si>
   <si>
     <t>stopped</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>broke</t>
   </si>
   <si>
     <t>negative</t>
@@ -67,36 +67,36 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>beautifully</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -106,10 +106,46 @@
     <t>perfect</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>wedding</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>daughter</t>
@@ -118,205 +154,160 @@
     <t>enjoy</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>apples</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>mas</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>ever</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>ever</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ze</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>pop</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>years</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nicely</t>
+    <t>tea</t>
   </si>
   <si>
     <t>baking</t>
   </si>
   <si>
-    <t>comfortable</t>
+    <t>cream</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>always</t>
+    <t>gr</t>
   </si>
   <si>
     <t>simple</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>good</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>far</t>
   </si>
   <si>
-    <t>wish</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>exactly</t>
   </si>
   <si>
     <t>recommend</t>
@@ -325,54 +316,48 @@
     <t>big</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>also</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>pot</t>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>coffee</t>
+    <t>job</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -380,6 +365,12 @@
   </si>
   <si>
     <t>one</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>buy</t>
@@ -752,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q112"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -763,7 +754,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -821,13 +812,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -839,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9655172413793104</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -863,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -871,13 +862,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5925925925925926</v>
+        <v>0.425</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -889,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9473684210526315</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -913,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -921,13 +912,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.45</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -939,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9354838709677419</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L5">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -963,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -971,13 +962,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3018867924528302</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -989,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>0.890625</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M6">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1013,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1021,13 +1012,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2323232323232323</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1039,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1063,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1071,13 +1062,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2248062015503876</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1089,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1113,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1121,13 +1112,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1923076923076923</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1139,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.846749226006192</v>
+        <v>0.8390092879256966</v>
       </c>
       <c r="L9">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="M9">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1163,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1171,13 +1162,13 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.8</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1189,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1197,13 +1188,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1215,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1223,13 +1214,13 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7954545454545454</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1241,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1249,13 +1240,13 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7662337662337663</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L13">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1267,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1301,13 +1292,13 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6883116883116883</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L15">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M15">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1319,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1327,13 +1318,13 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6508474576271186</v>
+        <v>0.6711864406779661</v>
       </c>
       <c r="L16">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M16">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1345,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1353,13 +1344,13 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6323529411764706</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1379,25 +1370,25 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6296296296296297</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="L18">
+        <v>32</v>
+      </c>
+      <c r="M18">
+        <v>32</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>17</v>
-      </c>
-      <c r="M18">
-        <v>17</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1405,13 +1396,13 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6285714285714286</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1423,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1431,13 +1422,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6285714285714286</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1449,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1457,13 +1448,13 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6197183098591549</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1475,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1483,13 +1474,13 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6187800963081862</v>
+        <v>0.6252006420545746</v>
       </c>
       <c r="L22">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="M22">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1501,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1512,10 +1503,10 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1527,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1535,13 +1526,13 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5964912280701754</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1553,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1561,13 +1552,13 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.589041095890411</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L25">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1579,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1587,13 +1578,13 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5833333333333334</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L26">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1605,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1613,13 +1604,13 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5771428571428572</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L27">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1631,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1639,13 +1630,13 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5769230769230769</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1657,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1665,13 +1656,13 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5757575757575758</v>
+        <v>0.578125</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1683,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1691,13 +1682,13 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1709,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1717,13 +1708,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5641025641025641</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1735,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1743,13 +1734,13 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5625</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1761,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1769,13 +1760,13 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.5490196078431373</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1787,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1795,13 +1786,13 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>0.546875</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1813,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1821,13 +1812,13 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>0.5396825396825397</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1839,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1847,13 +1838,13 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.5128205128205128</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L36">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1865,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1873,13 +1864,13 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>0.4871794871794872</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1891,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1899,13 +1890,13 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>0.4850299401197605</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L38">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="M38">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1917,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1925,13 +1916,13 @@
         <v>52</v>
       </c>
       <c r="K39">
-        <v>0.4807692307692308</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L39">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1943,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1951,13 +1942,13 @@
         <v>53</v>
       </c>
       <c r="K40">
-        <v>0.4769230769230769</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="M40">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1969,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1977,13 +1968,13 @@
         <v>54</v>
       </c>
       <c r="K41">
-        <v>0.4736842105263158</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L41">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1995,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2003,13 +1994,13 @@
         <v>55</v>
       </c>
       <c r="K42">
-        <v>0.44</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L42">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2021,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2029,13 +2020,13 @@
         <v>56</v>
       </c>
       <c r="K43">
-        <v>0.4320987654320987</v>
+        <v>0.425</v>
       </c>
       <c r="L43">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2047,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2055,13 +2046,13 @@
         <v>57</v>
       </c>
       <c r="K44">
-        <v>0.4210526315789473</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L44">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2073,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2081,13 +2072,13 @@
         <v>58</v>
       </c>
       <c r="K45">
-        <v>0.4193548387096774</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2099,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2107,13 +2098,13 @@
         <v>59</v>
       </c>
       <c r="K46">
-        <v>0.4156626506024096</v>
+        <v>0.4</v>
       </c>
       <c r="L46">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="M46">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2125,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2133,13 +2124,13 @@
         <v>60</v>
       </c>
       <c r="K47">
-        <v>0.4096385542168675</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="L47">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="M47">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2151,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2159,13 +2150,13 @@
         <v>61</v>
       </c>
       <c r="K48">
-        <v>0.4</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2177,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2185,13 +2176,13 @@
         <v>62</v>
       </c>
       <c r="K49">
-        <v>0.3968253968253968</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2203,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2211,13 +2202,13 @@
         <v>63</v>
       </c>
       <c r="K50">
-        <v>0.3846153846153846</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2229,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2237,13 +2228,13 @@
         <v>64</v>
       </c>
       <c r="K51">
-        <v>0.3684210526315789</v>
+        <v>0.3609022556390977</v>
       </c>
       <c r="L51">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="M51">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2255,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2263,13 +2254,13 @@
         <v>65</v>
       </c>
       <c r="K52">
-        <v>0.3673469387755102</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="L52">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M52">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2281,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2289,13 +2280,13 @@
         <v>66</v>
       </c>
       <c r="K53">
-        <v>0.3658536585365854</v>
+        <v>0.3431372549019608</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2307,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>26</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2315,13 +2306,13 @@
         <v>67</v>
       </c>
       <c r="K54">
-        <v>0.3382352941176471</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="L54">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="M54">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2333,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>270</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2341,13 +2332,13 @@
         <v>68</v>
       </c>
       <c r="K55">
-        <v>0.3268482490272374</v>
+        <v>0.3387096774193548</v>
       </c>
       <c r="L55">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2359,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>173</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2367,13 +2358,13 @@
         <v>69</v>
       </c>
       <c r="K56">
-        <v>0.3214285714285715</v>
+        <v>0.3307392996108949</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2385,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>38</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2393,13 +2384,13 @@
         <v>70</v>
       </c>
       <c r="K57">
-        <v>0.3166666666666667</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="L57">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2411,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2419,13 +2410,13 @@
         <v>71</v>
       </c>
       <c r="K58">
-        <v>0.3114754098360656</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="L58">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="M58">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2437,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>42</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2445,13 +2436,13 @@
         <v>72</v>
       </c>
       <c r="K59">
-        <v>0.3090909090909091</v>
+        <v>0.3</v>
       </c>
       <c r="L59">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M59">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2463,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2471,13 +2462,13 @@
         <v>73</v>
       </c>
       <c r="K60">
-        <v>0.3082706766917293</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L60">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M60">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2489,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2497,13 +2488,13 @@
         <v>74</v>
       </c>
       <c r="K61">
-        <v>0.302158273381295</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="L61">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2515,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2523,13 +2514,13 @@
         <v>75</v>
       </c>
       <c r="K62">
-        <v>0.2972972972972973</v>
+        <v>0.2904109589041096</v>
       </c>
       <c r="L62">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="M62">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2541,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>78</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2549,13 +2540,13 @@
         <v>76</v>
       </c>
       <c r="K63">
-        <v>0.263013698630137</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="L63">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="M63">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2567,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>538</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2575,13 +2566,13 @@
         <v>77</v>
       </c>
       <c r="K64">
-        <v>0.2592592592592592</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L64">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M64">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2593,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2601,13 +2592,13 @@
         <v>78</v>
       </c>
       <c r="K65">
-        <v>0.2574257425742574</v>
+        <v>0.25</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M65">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2619,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2627,13 +2618,13 @@
         <v>79</v>
       </c>
       <c r="K66">
-        <v>0.2535885167464115</v>
+        <v>0.2357373519913886</v>
       </c>
       <c r="L66">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="M66">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2645,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>156</v>
+        <v>710</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2653,13 +2644,13 @@
         <v>80</v>
       </c>
       <c r="K67">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M67">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2671,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2679,13 +2670,13 @@
         <v>81</v>
       </c>
       <c r="K68">
-        <v>0.2380952380952381</v>
+        <v>0.2296650717703349</v>
       </c>
       <c r="L68">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M68">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2697,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>64</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2705,13 +2696,13 @@
         <v>82</v>
       </c>
       <c r="K69">
-        <v>0.2361111111111111</v>
+        <v>0.2277227722772277</v>
       </c>
       <c r="L69">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M69">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2723,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2731,13 +2722,13 @@
         <v>83</v>
       </c>
       <c r="K70">
-        <v>0.2352941176470588</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="L70">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M70">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2749,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2757,13 +2748,13 @@
         <v>84</v>
       </c>
       <c r="K71">
-        <v>0.2285714285714286</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L71">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2775,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2783,13 +2774,13 @@
         <v>85</v>
       </c>
       <c r="K72">
-        <v>0.2251655629139073</v>
+        <v>0.2052980132450331</v>
       </c>
       <c r="L72">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M72">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2801,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2809,13 +2800,13 @@
         <v>86</v>
       </c>
       <c r="K73">
-        <v>0.2228202368137782</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L73">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="M73">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2827,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>722</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2835,13 +2826,13 @@
         <v>87</v>
       </c>
       <c r="K74">
-        <v>0.2072072072072072</v>
+        <v>0.1912225705329154</v>
       </c>
       <c r="L74">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M74">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2853,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>88</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2861,13 +2852,13 @@
         <v>88</v>
       </c>
       <c r="K75">
-        <v>0.2018348623853211</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L75">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M75">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2879,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2887,13 +2878,13 @@
         <v>89</v>
       </c>
       <c r="K76">
-        <v>0.2</v>
+        <v>0.1687979539641944</v>
       </c>
       <c r="L76">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="M76">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2905,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>68</v>
+        <v>650</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2913,13 +2904,13 @@
         <v>90</v>
       </c>
       <c r="K77">
-        <v>0.1956521739130435</v>
+        <v>0.1629139072847682</v>
       </c>
       <c r="L77">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="M77">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2931,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>74</v>
+        <v>632</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2939,7 +2930,7 @@
         <v>91</v>
       </c>
       <c r="K78">
-        <v>0.1882352941176471</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="L78">
         <v>16</v>
@@ -2957,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2965,13 +2956,13 @@
         <v>92</v>
       </c>
       <c r="K79">
-        <v>0.1807228915662651</v>
+        <v>0.16</v>
       </c>
       <c r="L79">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M79">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2983,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2991,13 +2982,13 @@
         <v>93</v>
       </c>
       <c r="K80">
-        <v>0.174496644295302</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L80">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M80">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3009,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3017,13 +3008,13 @@
         <v>94</v>
       </c>
       <c r="K81">
-        <v>0.1724137931034483</v>
+        <v>0.1531531531531531</v>
       </c>
       <c r="L81">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="M81">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3035,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>264</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3043,13 +3034,13 @@
         <v>95</v>
       </c>
       <c r="K82">
-        <v>0.1709401709401709</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="L82">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M82">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3061,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3069,13 +3060,13 @@
         <v>96</v>
       </c>
       <c r="K83">
-        <v>0.1708609271523179</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L83">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="M83">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3087,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>626</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3095,7 +3086,7 @@
         <v>97</v>
       </c>
       <c r="K84">
-        <v>0.1616161616161616</v>
+        <v>0.1415929203539823</v>
       </c>
       <c r="L84">
         <v>16</v>
@@ -3113,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3121,25 +3112,25 @@
         <v>98</v>
       </c>
       <c r="K85">
-        <v>0.1611253196930946</v>
+        <v>0.1378378378378378</v>
       </c>
       <c r="L85">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="M85">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>656</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3147,13 +3138,13 @@
         <v>99</v>
       </c>
       <c r="K86">
-        <v>0.1475409836065574</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="L86">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M86">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3165,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>104</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3173,13 +3164,13 @@
         <v>100</v>
       </c>
       <c r="K87">
-        <v>0.1461538461538462</v>
+        <v>0.1265206812652068</v>
       </c>
       <c r="L87">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="M87">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3191,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>111</v>
+        <v>359</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3199,25 +3190,25 @@
         <v>101</v>
       </c>
       <c r="K88">
-        <v>0.145945945945946</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L88">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="M88">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="N88">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>316</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3225,13 +3216,13 @@
         <v>102</v>
       </c>
       <c r="K89">
-        <v>0.1333333333333333</v>
+        <v>0.1217948717948718</v>
       </c>
       <c r="L89">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M89">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3243,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3251,13 +3242,13 @@
         <v>103</v>
       </c>
       <c r="K90">
-        <v>0.1305841924398626</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L90">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M90">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3269,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3277,25 +3268,25 @@
         <v>104</v>
       </c>
       <c r="K91">
-        <v>0.1287128712871287</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="L91">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M91">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N91">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>176</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3303,13 +3294,13 @@
         <v>105</v>
       </c>
       <c r="K92">
-        <v>0.1259259259259259</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L92">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M92">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3321,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3329,13 +3320,13 @@
         <v>106</v>
       </c>
       <c r="K93">
-        <v>0.1219512195121951</v>
+        <v>0.1083743842364532</v>
       </c>
       <c r="L93">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M93">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3347,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3355,13 +3346,13 @@
         <v>107</v>
       </c>
       <c r="K94">
-        <v>0.1192214111922141</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="L94">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M94">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3373,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>362</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3381,13 +3372,13 @@
         <v>108</v>
       </c>
       <c r="K95">
-        <v>0.1165644171779141</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="L95">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M95">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3399,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>144</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3407,13 +3398,13 @@
         <v>109</v>
       </c>
       <c r="K96">
-        <v>0.1111111111111111</v>
+        <v>0.09649122807017543</v>
       </c>
       <c r="L96">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="M96">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3425,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>136</v>
+        <v>412</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3433,13 +3424,13 @@
         <v>110</v>
       </c>
       <c r="K97">
-        <v>0.1107011070110701</v>
+        <v>0.09225092250922509</v>
       </c>
       <c r="L97">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M97">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3451,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3459,13 +3450,13 @@
         <v>111</v>
       </c>
       <c r="K98">
-        <v>0.1092436974789916</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="L98">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M98">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3477,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3485,7 +3476,7 @@
         <v>112</v>
       </c>
       <c r="K99">
-        <v>0.108974358974359</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L99">
         <v>17</v>
@@ -3503,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>139</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3511,13 +3502,13 @@
         <v>113</v>
       </c>
       <c r="K100">
-        <v>0.1016949152542373</v>
+        <v>0.081145584725537</v>
       </c>
       <c r="L100">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M100">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3529,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>159</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3537,13 +3528,13 @@
         <v>114</v>
       </c>
       <c r="K101">
-        <v>0.08409090909090909</v>
+        <v>0.06876790830945559</v>
       </c>
       <c r="L101">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M101">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3555,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>403</v>
+        <v>650</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3563,13 +3554,13 @@
         <v>115</v>
       </c>
       <c r="K102">
-        <v>0.07875894988066826</v>
+        <v>0.06830601092896176</v>
       </c>
       <c r="L102">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M102">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3581,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>386</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3589,13 +3580,13 @@
         <v>116</v>
       </c>
       <c r="K103">
-        <v>0.07675438596491228</v>
+        <v>0.05597014925373135</v>
       </c>
       <c r="L103">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M103">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3607,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>421</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3615,25 +3606,25 @@
         <v>117</v>
       </c>
       <c r="K104">
-        <v>0.07258064516129033</v>
+        <v>0.0467032967032967</v>
       </c>
       <c r="L104">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M104">
         <v>18</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104">
-        <v>230</v>
+        <v>347</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3641,25 +3632,25 @@
         <v>118</v>
       </c>
       <c r="K105">
-        <v>0.07246376811594203</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L105">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M105">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N105">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O105">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>192</v>
+        <v>396</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3667,13 +3658,13 @@
         <v>119</v>
       </c>
       <c r="K106">
-        <v>0.0659025787965616</v>
+        <v>0.04314720812182741</v>
       </c>
       <c r="L106">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="M106">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3685,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>652</v>
+        <v>377</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3693,13 +3684,13 @@
         <v>120</v>
       </c>
       <c r="K107">
-        <v>0.06010928961748634</v>
+        <v>0.03505535055350553</v>
       </c>
       <c r="L107">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M107">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3711,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>344</v>
+        <v>523</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3719,25 +3710,25 @@
         <v>121</v>
       </c>
       <c r="K108">
-        <v>0.05882352941176471</v>
+        <v>0.03262955854126679</v>
       </c>
       <c r="L108">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M108">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="N108">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O108">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>1008</v>
+        <v>504</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3745,13 +3736,13 @@
         <v>122</v>
       </c>
       <c r="K109">
-        <v>0.05583756345177665</v>
+        <v>0.02938634399308557</v>
       </c>
       <c r="L109">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M109">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3763,85 +3754,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="110" spans="10:17">
-      <c r="J110" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K110">
-        <v>0.05350553505535055</v>
-      </c>
-      <c r="L110">
-        <v>29</v>
-      </c>
-      <c r="M110">
-        <v>29</v>
-      </c>
-      <c r="N110">
-        <v>1</v>
-      </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="P110" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="111" spans="10:17">
-      <c r="J111" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K111">
-        <v>0.03262955854126679</v>
-      </c>
-      <c r="L111">
-        <v>17</v>
-      </c>
-      <c r="M111">
-        <v>18</v>
-      </c>
-      <c r="N111">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O111">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P111" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q111">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="112" spans="10:17">
-      <c r="J112" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K112">
-        <v>0.01991341991341991</v>
-      </c>
-      <c r="L112">
-        <v>23</v>
-      </c>
-      <c r="M112">
-        <v>25</v>
-      </c>
-      <c r="N112">
-        <v>0.92</v>
-      </c>
-      <c r="O112">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P112" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q112">
-        <v>1132</v>
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
